--- a/문서함/기획/몬스터/몬스터 컨셉 (임시 1차).xlsx
+++ b/문서함/기획/몬스터/몬스터 컨셉 (임시 1차).xlsx
@@ -4,7 +4,9 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="시트1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="시트2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="몬스터 패턴" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="디버프 카드" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="버프디버프" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="195">
   <si>
     <t>기본 정보</t>
   </si>
@@ -116,31 +118,106 @@
     <t>컨샙 및 특징</t>
   </si>
   <si>
+    <t>몬스터 패턴</t>
+  </si>
+  <si>
+    <t>몬스터 데이터 명세서</t>
+  </si>
+  <si>
+    <t>패턴 / 파워명</t>
+  </si>
+  <si>
+    <t>유형</t>
+  </si>
+  <si>
+    <t>최소 데미지</t>
+  </si>
+  <si>
+    <t>최대 데미지</t>
+  </si>
+  <si>
+    <t>타격 횟수</t>
+  </si>
+  <si>
+    <t>데미지 공식</t>
+  </si>
+  <si>
+    <t>대상 ID</t>
+  </si>
+  <si>
+    <t>효과 값 (value)</t>
+  </si>
+  <si>
+    <t>트리거</t>
+  </si>
+  <si>
+    <t>점액 뱉기</t>
+  </si>
+  <si>
+    <t>공격</t>
+  </si>
+  <si>
+    <t>add_card</t>
+  </si>
+  <si>
+    <t>슬라임 카드</t>
+  </si>
+  <si>
     <t>카드 더미</t>
   </si>
   <si>
     <t>소모한 카드를 카드 더미에 버림</t>
   </si>
   <si>
-    <t>점액 뱉기</t>
+    <t>속성 분류</t>
+  </si>
+  <si>
+    <t>설명</t>
+  </si>
+  <si>
+    <t>영향을 주는 속성</t>
   </si>
   <si>
     <t>10피해를 입히며, 카드 더미에 '점액 덩어리' 2장을 투입</t>
   </si>
   <si>
+    <t>???</t>
+  </si>
+  <si>
     <t>가방에 있는 카드 전부 소모시 카드더미를 비우고 가방에 다시 넣음</t>
   </si>
   <si>
+    <t>1단계 (기본 정보)</t>
+  </si>
+  <si>
+    <t>최소 체력</t>
+  </si>
+  <si>
     <t>점액 덩어리는 제거 불가 카드</t>
   </si>
   <si>
+    <t>파워</t>
+  </si>
+  <si>
+    <t>분열</t>
+  </si>
+  <si>
+    <t>spawn_unit</t>
+  </si>
+  <si>
+    <t>미니 슬라임</t>
+  </si>
+  <si>
+    <t>사망시</t>
+  </si>
+  <si>
     <t>가방</t>
   </si>
   <si>
     <t>사용 안한 카드들이 모여있는 공간</t>
   </si>
   <si>
-    <t>???</t>
+    <t>최대 체력</t>
   </si>
   <si>
     <t>마나</t>
@@ -149,10 +226,7 @@
     <t>카드를 사용하기 위해 소모하는 수치</t>
   </si>
   <si>
-    <t>파워</t>
-  </si>
-  <si>
-    <t>분열</t>
+    <t>초기 방어도</t>
   </si>
   <si>
     <t>죽을 시 2마리로 분열</t>
@@ -164,19 +238,37 @@
     <t>플레이어 덱에 투입하는 카드</t>
   </si>
   <si>
+    <t>상태이상 저항</t>
+  </si>
+  <si>
     <t>마나를 소모하여 제거 가능 (1마나 요구)</t>
   </si>
   <si>
+    <t>2단계 (패턴 속성)</t>
+  </si>
+  <si>
+    <t>패턴 이름</t>
+  </si>
+  <si>
+    <t>바이러스</t>
+  </si>
+  <si>
+    <t>바이러스 카드</t>
+  </si>
+  <si>
     <t>점액 덩어리</t>
   </si>
   <si>
     <t>덱 빌드를 방해하는 카드</t>
   </si>
   <si>
-    <t>바이러스</t>
-  </si>
-  <si>
-    <t>7피해를 주고, 덱에 '감염' 상태이상 카드 1장 투입, 턴이 종료 후에 남아 있을 시 7피해</t>
+    <t>행동 유형</t>
+  </si>
+  <si>
+    <t>7피해를 주고, 덱에 '감염' 상태이상 카드 1장 카드 더미에 투입, 턴이 종료 후에 남아 있을 시 7피해</t>
+  </si>
+  <si>
+    <t>연속 물기</t>
   </si>
   <si>
     <t>카드 더미에 투입</t>
@@ -185,12 +277,12 @@
     <t>감염' 상태이상 카드는 '마나' 1를 소모하여 제거 가능</t>
   </si>
   <si>
+    <t>감염 카드</t>
+  </si>
+  <si>
     <t>제거 불가 카드</t>
   </si>
   <si>
-    <t>연속 물기</t>
-  </si>
-  <si>
     <t>5피해를 2번 공격</t>
   </si>
   <si>
@@ -203,19 +295,37 @@
     <t>독</t>
   </si>
   <si>
+    <t>계산 공식</t>
+  </si>
+  <si>
     <t>독' 상태이상 카드는 '마나' 2를 소모하여 제거 가능</t>
   </si>
   <si>
     <t>마나를 소모하여 제거 가능 (2마나 요구)</t>
   </si>
   <si>
+    <t>부가 효과</t>
+  </si>
+  <si>
     <t>방어도</t>
   </si>
   <si>
     <t>자신에게 소모성 체력을 부여</t>
   </si>
   <si>
-    <t>철갑 바퀴</t>
+    <t>3단계 (패시브)</t>
+  </si>
+  <si>
+    <t>패시브 이름</t>
+  </si>
+  <si>
+    <t>철갑 벌레</t>
+  </si>
+  <si>
+    <t>웅크리기</t>
+  </si>
+  <si>
+    <t>방어</t>
   </si>
   <si>
     <t>소멸</t>
@@ -224,19 +334,22 @@
     <t>카드를 덱에서 제거</t>
   </si>
   <si>
-    <t>웅크리기</t>
-  </si>
-  <si>
     <t>10방어도를 획득</t>
   </si>
   <si>
+    <t>돌진</t>
+  </si>
+  <si>
+    <t>보유 중인 방어력 + 데미지</t>
+  </si>
+  <si>
     <t>도망</t>
   </si>
   <si>
     <t>몬스터가 도망침</t>
   </si>
   <si>
-    <t>돌진</t>
+    <t>공식</t>
   </si>
   <si>
     <t>5피해</t>
@@ -248,24 +361,39 @@
     <t>카드를 사용할 때 마다 체력 감소</t>
   </si>
   <si>
+    <t>액션</t>
+  </si>
+  <si>
     <t>방어도가 남아있다면 방어도 수치만큼 추가 데미지</t>
   </si>
   <si>
+    <t>값</t>
+  </si>
+  <si>
     <t>X</t>
   </si>
   <si>
+    <t>제한</t>
+  </si>
+  <si>
     <t>흡혈 거머리</t>
   </si>
   <si>
     <t>흡혈</t>
   </si>
   <si>
+    <t>heal_by_dmg</t>
+  </si>
+  <si>
     <t>7피해를 주고, 입힌 피해향의 50%만큼 자신의 체력을 회복</t>
   </si>
   <si>
     <t>물기</t>
   </si>
   <si>
+    <t>gain_armor</t>
+  </si>
+  <si>
     <t>5피해 이후 7방어도 획득</t>
   </si>
   <si>
@@ -275,18 +403,33 @@
     <t>포자 구름</t>
   </si>
   <si>
+    <t>디버프</t>
+  </si>
+  <si>
+    <t>apply_status</t>
+  </si>
+  <si>
     <t>해당 턴에 카드를 사용할 때 마다 1피해를 주는 '마나 중독' 부여</t>
   </si>
   <si>
+    <t>폭팔</t>
+  </si>
+  <si>
+    <t>패시브</t>
+  </si>
+  <si>
+    <t>damage_all</t>
+  </si>
+  <si>
+    <t>사망 시</t>
+  </si>
+  <si>
     <t>해당 턴 종료시 디버프 해제</t>
   </si>
   <si>
     <t>중복 가능</t>
   </si>
   <si>
-    <t>폭팔</t>
-  </si>
-  <si>
     <t>죽을 때 10피해</t>
   </si>
   <si>
@@ -296,31 +439,52 @@
     <t>부식</t>
   </si>
   <si>
+    <t>방어도 무시 공격</t>
+  </si>
+  <si>
     <t>플레이어의 방어도를 무시하고 4피해</t>
   </si>
   <si>
     <t>기화</t>
   </si>
   <si>
+    <t>버프</t>
+  </si>
+  <si>
+    <t>buff_intangible</t>
+  </si>
+  <si>
     <t>1턴 동안 공격 받지 않는 '무형' 상태</t>
   </si>
   <si>
     <t>익사한 도굴꾼</t>
   </si>
   <si>
+    <t>찌르기</t>
+  </si>
+  <si>
+    <t>10피해</t>
+  </si>
+  <si>
+    <t>비겁한 일격</t>
+  </si>
+  <si>
+    <t>공격 전 마지막 덱에 남아있던 카드 중 공격 카드가 없다면 20피해</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>공격 카드가 1장이라도 남을 시 0피해</t>
+  </si>
+  <si>
     <t>훔치기</t>
   </si>
   <si>
-    <t>10피해</t>
-  </si>
-  <si>
-    <t>비겁한 일격</t>
-  </si>
-  <si>
-    <t>공격 전 마지막 덱에 남아있던 카드 중 공격 카드가 없다면 20피해</t>
-  </si>
-  <si>
-    <t>공격 카드가 1장이라도 남을 시 0피해</t>
+    <t>steal_gold</t>
+  </si>
+  <si>
+    <t>피격 시</t>
   </si>
   <si>
     <t>도망침</t>
@@ -332,6 +496,12 @@
     <t>파손된 골렘</t>
   </si>
   <si>
+    <t>벨브 잠그기</t>
+  </si>
+  <si>
+    <t>debuff_draw_minus</t>
+  </si>
+  <si>
     <t>밸브 잠그기</t>
   </si>
   <si>
@@ -341,6 +511,9 @@
     <t>긴급 복구</t>
   </si>
   <si>
+    <t>heal</t>
+  </si>
+  <si>
     <t>체력 20 회복</t>
   </si>
   <si>
@@ -350,6 +523,15 @@
     <t>2피해를 5번 공격</t>
   </si>
   <si>
+    <t>증기 배충</t>
+  </si>
+  <si>
+    <t>exhaust_card_temporary</t>
+  </si>
+  <si>
+    <t>cpfur 30% 미만</t>
+  </si>
+  <si>
     <t>증기 배출</t>
   </si>
   <si>
@@ -365,19 +547,58 @@
     <t>매복</t>
   </si>
   <si>
+    <t>set_flag</t>
+  </si>
+  <si>
     <t>행동 안함</t>
   </si>
   <si>
+    <t>기습</t>
+  </si>
+  <si>
+    <t>remove_flag</t>
+  </si>
+  <si>
     <t>다음 턴 '기습' 작동</t>
   </si>
   <si>
-    <t>기습</t>
-  </si>
-  <si>
     <t>15피해</t>
   </si>
   <si>
     <t>해당 패턴 전 '매복' 이후 가능</t>
+  </si>
+  <si>
+    <t>고유 ID</t>
+  </si>
+  <si>
+    <t>해제/사용 조건</t>
+  </si>
+  <si>
+    <t>작동 로직</t>
+  </si>
+  <si>
+    <t>debuff_mana_addict</t>
+  </si>
+  <si>
+    <t>카드 사용 시 마다 value 만큼 피해</t>
+  </si>
+  <si>
+    <t>무형</t>
+  </si>
+  <si>
+    <t>value 동안 피격 시 받는 피해를 0로 공정</t>
+  </si>
+  <si>
+    <t>벨프 잠김</t>
+  </si>
+  <si>
+    <t>다음 턴 시작 시 value 만큼 드로우 매수 감소</t>
+  </si>
+  <si>
+    <t>방어도 획득</t>
+  </si>
+  <si>
+    <t>몬스터 또는 플레이어 자신에게 value 만큼의 방어도를 추가함</t>
   </si>
 </sst>
 </file>
@@ -397,12 +618,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -417,7 +644,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -437,25 +664,35 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf quotePrefix="1" borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -506,7 +743,7 @@
     <xdr:ext cx="361950" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -534,7 +771,7 @@
     <xdr:ext cx="361950" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -556,6 +793,14 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1545,544 +1790,1227 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="3" max="3" width="67.38"/>
-    <col customWidth="1" min="5" max="5" width="43.63"/>
+    <col customWidth="1" min="4" max="4" width="2.63"/>
+    <col customWidth="1" min="5" max="5" width="10.5"/>
+    <col customWidth="1" min="8" max="9" width="11.75"/>
+    <col customWidth="1" min="11" max="11" width="20.63"/>
+    <col customWidth="1" min="14" max="14" width="13.0"/>
+    <col customWidth="1" min="15" max="15" width="15.13"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="8"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="9"/>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="6" t="s">
+      <c r="C3" s="12"/>
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="F3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="2" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="14"/>
+      <c r="B8" s="7"/>
+      <c r="R8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="E9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="X10" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3">
-      <c r="C3" s="9" t="s">
+    <row r="11">
+      <c r="C11" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="X11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="2" t="s">
+    </row>
+    <row r="12">
+      <c r="B12" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="X12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="2" t="s">
+    </row>
+    <row r="13">
+      <c r="A13" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="Q15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="E16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="X16" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="6" t="s">
+    <row r="17">
+      <c r="A17" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="E6" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="s">
+      <c r="H17" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="X20" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="s">
+      <c r="B22" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="E22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="C9" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="F22" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N22" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="N23" s="2">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="C12" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="D13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="s">
+    <row r="25">
+      <c r="A25" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="12"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="s">
+      <c r="B27" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="E27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="C17" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="8"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="6" t="s">
+      <c r="F27" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N28" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="8"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="6" t="s">
+      <c r="B33" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="E33" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="8"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="6" t="s">
+      <c r="F33" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="N34" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="12"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="8"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="6" t="s">
+      <c r="B38" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="E38" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="C28" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="6" t="s">
+      <c r="F38" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="N41" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="8"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="6" t="s">
+      <c r="B45" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C45" s="12"/>
+      <c r="E45" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="8"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="6" t="s">
+      <c r="F45" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="N45" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="N46" s="2">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="I47" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="J47" s="2">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="N48" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C36" s="8"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="6" t="s">
+      <c r="B52" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C52" s="12"/>
+      <c r="E52" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="C39" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C43" s="8"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="6" t="s">
+      <c r="F52" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="N52" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="C48" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C50" s="8"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="6" t="s">
+      <c r="B53" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="C52" s="9" t="s">
+      <c r="F53" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="I53" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="J53" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="N53" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" s="13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" s="10" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="53">
-      <c r="B53" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="C54" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C55" s="8"/>
+      <c r="C57" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B51:B52"/>
+  <mergeCells count="23">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:O1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
     <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A53:A56"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="17.0"/>
+    <col customWidth="1" min="4" max="4" width="33.63"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>